--- a/Agosto/20 agosto/gustavo a madero/PLANTILLA LISTA DE ASPIRANTES_1 ITGAM OFICIAL 19 y 20 ago 2024.xlsx
+++ b/Agosto/20 agosto/gustavo a madero/PLANTILLA LISTA DE ASPIRANTES_1 ITGAM OFICIAL 19 y 20 ago 2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\19 agosto\gustavo a madero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\20 agosto\gustavo a madero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D4E48A-A501-43EA-A5BE-9376579EACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5444A2-D4EF-46CE-A960-2AF7D85CF22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2318,12 +2318,14 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2331,8 +2333,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2348,7 +2348,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2650,25 +2660,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla223" displayName="Tabla223" ref="A4:M178" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla223" displayName="Tabla223" ref="A4:M178" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A4:M178" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M92">
     <sortCondition ref="K4:K178"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO" dataDxfId="12" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CLAVE CARRERA" dataDxfId="11" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CARRERA" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VERSION" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA SIMULACRO" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="HORA DE SIMULACRO" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AULA" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NOMBRE ASPIRANTE" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CURP" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CORREO ELECTRONICO" dataDxfId="13" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CLAVE CARRERA" dataDxfId="12" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CARRERA" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VERSION" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA SIMULACRO" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="HORA DE SIMULACRO" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA APLICACIÓN OFICIAL" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AULA" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2975,28 +2985,28 @@
   <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:A178"/>
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="16.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3011,72 +3021,72 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="2"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -3099,25 +3109,25 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -3141,25 +3151,25 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -3182,25 +3192,25 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -3223,25 +3233,25 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -3264,25 +3274,25 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -3305,25 +3315,25 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -3346,25 +3356,25 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -3387,25 +3397,25 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -3428,25 +3438,25 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -3469,25 +3479,25 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -3510,25 +3520,25 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -3551,25 +3561,25 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -3592,25 +3602,25 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -3633,25 +3643,25 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3674,25 +3684,25 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3715,25 +3725,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3756,25 +3766,25 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3797,25 +3807,25 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3838,25 +3848,25 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -3879,25 +3889,25 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -3920,25 +3930,25 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -3961,25 +3971,25 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -4002,25 +4012,25 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -4043,25 +4053,25 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -4084,25 +4094,25 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -4125,25 +4135,25 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -4166,25 +4176,25 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -4207,25 +4217,25 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -4248,25 +4258,25 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
@@ -4289,25 +4299,25 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -4330,25 +4340,25 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="8" t="s">
@@ -4371,25 +4381,25 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -4412,25 +4422,25 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -4453,25 +4463,25 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -4494,25 +4504,25 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -4535,25 +4545,25 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -4576,25 +4586,25 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -4617,25 +4627,25 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -4658,25 +4668,25 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -4699,25 +4709,25 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="8" t="s">
@@ -4740,25 +4750,25 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -4781,25 +4791,25 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -4822,25 +4832,25 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -4863,25 +4873,25 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="8" t="s">
@@ -4904,25 +4914,25 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H50" s="8" t="s">
@@ -4945,25 +4955,25 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -4986,25 +4996,25 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -5027,25 +5037,25 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="2">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -5068,25 +5078,25 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="2">
         <v>1</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -5109,25 +5119,25 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -5150,25 +5160,25 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="2">
         <v>2</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -5191,25 +5201,25 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="2">
         <v>2</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -5232,25 +5242,25 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="2">
         <v>2</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -5273,25 +5283,25 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="2">
         <v>2</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -5314,25 +5324,25 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="2">
         <v>2</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="8" t="s">
@@ -5355,25 +5365,25 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="2">
         <v>2</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="8" t="s">
@@ -5396,25 +5406,25 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="2">
         <v>2</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -5437,25 +5447,25 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="2">
         <v>2</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="8" t="s">
@@ -5478,25 +5488,25 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="2">
         <v>2</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H64" s="8" t="s">
@@ -5519,25 +5529,25 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="2">
         <v>2</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="8" t="s">
@@ -5560,25 +5570,25 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="2">
         <v>2</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="8" t="s">
@@ -5601,25 +5611,25 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="8" t="s">
@@ -5642,25 +5652,25 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="2">
         <v>2</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H68" s="8" t="s">
@@ -5683,25 +5693,25 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="2">
         <v>2</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H69" s="8" t="s">
@@ -5724,25 +5734,25 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="2">
         <v>2</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="8" t="s">
@@ -5765,25 +5775,25 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="2">
         <v>2</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="8" t="s">
@@ -5806,25 +5816,25 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="2">
         <v>2</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="8" t="s">
@@ -5847,25 +5857,25 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="2">
         <v>2</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="8" t="s">
@@ -5888,25 +5898,25 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="2">
         <v>2</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="8" t="s">
@@ -5929,25 +5939,25 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="2">
         <v>2</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -5970,25 +5980,25 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="2">
         <v>2</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="8" t="s">
@@ -6011,25 +6021,25 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="2">
         <v>2</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H77" s="8" t="s">
@@ -6052,25 +6062,25 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="2">
         <v>2</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="8" t="s">
@@ -6093,25 +6103,25 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="2">
         <v>2</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="8" t="s">
@@ -6134,25 +6144,25 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="2">
         <v>2</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="8" t="s">
@@ -6175,25 +6185,25 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="2">
         <v>2</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H81" s="8" t="s">
@@ -6216,25 +6226,25 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="2">
         <v>2</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="8" t="s">
@@ -6257,25 +6267,25 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="2">
         <v>2</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="8" t="s">
@@ -6298,25 +6308,25 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="2">
         <v>2</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="8" t="s">
@@ -6339,25 +6349,25 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="2">
         <v>2</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="8" t="s">
@@ -6380,25 +6390,25 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="2">
         <v>2</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="8" t="s">
@@ -6421,25 +6431,25 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -6462,25 +6472,25 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="2">
         <v>2</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H88" s="8" t="s">
@@ -6503,25 +6513,25 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="2">
         <v>2</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H89" s="8" t="s">
@@ -6544,25 +6554,25 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="2">
         <v>2</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H90" s="8" t="s">
@@ -6585,25 +6595,25 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="2">
         <v>2</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H91" s="8" t="s">
@@ -6626,25 +6636,25 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="2">
         <v>2</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H92" s="8" t="s">
@@ -6667,25 +6677,25 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="2">
         <v>2</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H93" s="8" t="s">
@@ -6708,25 +6718,25 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="2">
         <v>2</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H94" s="8" t="s">
@@ -6749,25 +6759,25 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="2">
         <v>2</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H95" s="8" t="s">
@@ -6790,25 +6800,25 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="2">
         <v>2</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H96" s="8" t="s">
@@ -6831,25 +6841,25 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="2">
         <v>2</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H97" s="8" t="s">
@@ -6872,25 +6882,25 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="2">
         <v>2</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H98" s="8" t="s">
@@ -6913,25 +6923,25 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="2">
         <v>2</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H99" s="8" t="s">
@@ -6954,25 +6964,25 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="2">
         <v>2</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H100" s="8" t="s">
@@ -6995,25 +7005,25 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="2">
         <v>2</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H101" s="8" t="s">
@@ -7036,25 +7046,25 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="2">
         <v>2</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H102" s="8" t="s">
@@ -7077,25 +7087,25 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="2">
         <v>2</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H103" s="8" t="s">
@@ -7118,25 +7128,25 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="2">
         <v>2</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H104" s="8" t="s">
@@ -7159,25 +7169,25 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="2">
         <v>2</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H105" s="8" t="s">
@@ -7200,25 +7210,25 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="2">
         <v>2</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H106" s="8" t="s">
@@ -7241,25 +7251,25 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="2">
         <v>2</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H107" s="8" t="s">
@@ -7282,25 +7292,25 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="2">
         <v>3</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H108" s="8" t="s">
@@ -7323,25 +7333,25 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="2">
         <v>3</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H109" s="8" t="s">
@@ -7364,25 +7374,25 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="2">
         <v>3</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H110" s="8" t="s">
@@ -7405,25 +7415,25 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="2">
         <v>3</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H111" s="8" t="s">
@@ -7446,25 +7456,25 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="2">
         <v>3</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H112" s="12" t="s">
@@ -7487,25 +7497,25 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="2">
         <v>3</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H113" s="12" t="s">
@@ -7528,25 +7538,25 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="2">
         <v>3</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H114" s="12" t="s">
@@ -7569,25 +7579,25 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="2">
         <v>3</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H115" s="12" t="s">
@@ -7610,25 +7620,25 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="2">
         <v>3</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H116" s="12" t="s">
@@ -7651,25 +7661,25 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="2">
         <v>3</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H117" s="12" t="s">
@@ -7692,25 +7702,25 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="2">
         <v>3</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H118" s="12" t="s">
@@ -7733,25 +7743,25 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="2">
         <v>3</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="12" t="s">
@@ -7774,25 +7784,25 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="2">
         <v>3</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H120" s="12" t="s">
@@ -7815,25 +7825,25 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="2">
         <v>3</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H121" s="12" t="s">
@@ -7856,25 +7866,25 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="2">
         <v>3</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H122" s="12" t="s">
@@ -7897,25 +7907,25 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="2">
         <v>3</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H123" s="12" t="s">
@@ -7938,25 +7948,25 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="2">
         <v>3</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H124" s="12" t="s">
@@ -7979,25 +7989,25 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="2">
         <v>2</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H125" s="12" t="s">
@@ -8020,25 +8030,25 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="2">
         <v>4</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H126" s="12" t="s">
@@ -8061,25 +8071,25 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="2">
         <v>4</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H127" s="12" t="s">
@@ -8102,25 +8112,25 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="2">
         <v>4</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H128" s="12" t="s">
@@ -8143,25 +8153,25 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="2">
         <v>4</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H129" s="12" t="s">
@@ -8184,25 +8194,25 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="2">
         <v>4</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H130" s="12" t="s">
@@ -8225,25 +8235,25 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="2">
         <v>4</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H131" s="12" t="s">
@@ -8266,25 +8276,25 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="2">
         <v>4</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H132" s="12" t="s">
@@ -8307,25 +8317,25 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="2">
         <v>4</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H133" s="12" t="s">
@@ -8348,25 +8358,25 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="2">
         <v>4</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H134" s="12" t="s">
@@ -8389,25 +8399,25 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="2">
         <v>4</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H135" s="12" t="s">
@@ -8430,25 +8440,25 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="2">
         <v>4</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H136" s="12" t="s">
@@ -8471,25 +8481,25 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="2">
         <v>5</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H137" s="12" t="s">
@@ -8512,25 +8522,25 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="2">
         <v>4</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H138" s="12" t="s">
@@ -8553,25 +8563,25 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="2">
         <v>4</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H139" s="12" t="s">
@@ -8594,25 +8604,25 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="2">
         <v>4</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H140" s="12" t="s">
@@ -8635,25 +8645,25 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="2">
         <v>4</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H141" s="12" t="s">
@@ -8676,25 +8686,25 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="2">
         <v>4</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H142" s="12" t="s">
@@ -8717,25 +8727,25 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="2">
         <v>4</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H143" s="12" t="s">
@@ -8758,25 +8768,25 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="2">
         <v>4</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H144" s="12" t="s">
@@ -8799,25 +8809,25 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="2">
         <v>4</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H145" s="12" t="s">
@@ -8840,25 +8850,25 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="2">
         <v>4</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H146" s="12" t="s">
@@ -8881,25 +8891,25 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="2">
         <v>4</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H147" s="12" t="s">
@@ -8922,25 +8932,25 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="2">
         <v>4</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H148" s="12" t="s">
@@ -8963,25 +8973,25 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="2">
         <v>4</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H149" s="12" t="s">
@@ -9004,25 +9014,25 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="2">
         <v>4</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H150" s="12" t="s">
@@ -9045,25 +9055,25 @@
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="2">
         <v>4</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H151" s="12" t="s">
@@ -9086,25 +9096,25 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="2">
         <v>4</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H152" s="12" t="s">
@@ -9127,25 +9137,25 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="2">
         <v>4</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H153" s="12" t="s">
@@ -9168,25 +9178,25 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="2">
         <v>4</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H154" s="12" t="s">
@@ -9209,25 +9219,25 @@
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="2">
         <v>4</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H155" s="12" t="s">
@@ -9250,25 +9260,25 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="2">
         <v>4</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H156" s="12" t="s">
@@ -9291,25 +9301,25 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="2">
         <v>4</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H157" s="12" t="s">
@@ -9332,25 +9342,25 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="2">
         <v>4</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H158" s="12" t="s">
@@ -9373,25 +9383,25 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="2">
         <v>5</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H159" s="12" t="s">
@@ -9414,25 +9424,25 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="2">
         <v>5</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H160" s="12" t="s">
@@ -9455,25 +9465,25 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="2">
         <v>5</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H161" s="12" t="s">
@@ -9496,25 +9506,25 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="2">
         <v>5</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H162" s="12" t="s">
@@ -9537,25 +9547,25 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="2">
         <v>5</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H163" s="12" t="s">
@@ -9578,25 +9588,25 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="2">
         <v>5</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H164" s="12" t="s">
@@ -9619,25 +9629,25 @@
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165" s="4">
         <v>50016</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="2">
         <v>5</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H165" s="12" t="s">
@@ -9660,25 +9670,25 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="2">
         <v>5</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H166" s="12" t="s">
@@ -9701,25 +9711,25 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="2">
         <v>2</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H167" s="12" t="s">
@@ -9742,25 +9752,25 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="2">
         <v>5</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H168" s="12" t="s">
@@ -9783,25 +9793,25 @@
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="2">
         <v>5</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H169" s="12" t="s">
@@ -9824,25 +9834,25 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="2">
         <v>3</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H170" s="12" t="s">
@@ -9865,25 +9875,25 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="2">
         <v>5</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H171" s="12" t="s">
@@ -9906,25 +9916,25 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="2">
         <v>5</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H172" s="12" t="s">
@@ -9947,25 +9957,25 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="2">
         <v>6</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H173" s="12" t="s">
@@ -9988,25 +9998,25 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="2">
         <v>4</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H174" s="12" t="s">
@@ -10029,25 +10039,25 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="2">
         <v>6</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H175" s="12" t="s">
@@ -10070,25 +10080,25 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="2">
         <v>6</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F176" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H176" s="12" t="s">
@@ -10111,25 +10121,25 @@
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="2">
         <v>6</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H177" s="12" t="s">
@@ -10152,25 +10162,25 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="2">
         <v>6</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H178" s="12" t="s">
@@ -10198,7 +10208,8 @@
     <mergeCell ref="C2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
